--- a/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
@@ -10150,12 +10150,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -10165,12 +10165,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">

--- a/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en País Vasco</t>
+          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Andalucia</t>
+          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7414,7 +7414,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en C.Valenciana</t>
+          <t>Percepción de inseguridad en C.Valenciana (tasa de respuesta: 93,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Barcelona</t>
+          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>116314</t>
+          <t>130318</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>111807</t>
+          <t>125021</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>120630</t>
+          <t>134877</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>108310</t>
+          <t>130693</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>103178</t>
+          <t>124668</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>112508</t>
+          <t>135760</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>224624</t>
+          <t>261011</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>217584</t>
+          <t>253330</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>230635</t>
+          <t>268112</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>78,02%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27226</t>
+          <t>31174</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23534</t>
+          <t>26844</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31762</t>
+          <t>36372</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30165</t>
+          <t>36028</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26218</t>
+          <t>31498</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34631</t>
+          <t>41992</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>57392</t>
+          <t>67202</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>51473</t>
+          <t>60452</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>63600</t>
+          <t>74675</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,73%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5683</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8213</t>
+          <t>8870</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5484</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10275</t>
+          <t>12267</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>13196</t>
+          <t>15420</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>10375</t>
+          <t>12067</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>16607</t>
+          <t>19176</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61739</t>
+          <t>69420</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58241</t>
+          <t>65605</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65397</t>
+          <t>73449</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,47%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>83398</t>
+          <t>93745</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79452</t>
+          <t>89208</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>86960</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>145137</t>
+          <t>163165</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>139016</t>
+          <t>157171</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>150185</t>
+          <t>169090</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>77,4%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14861</t>
+          <t>17558</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11715</t>
+          <t>14116</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18109</t>
+          <t>20862</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20017</t>
+          <t>24009</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16968</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23771</t>
+          <t>28208</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>34878</t>
+          <t>41567</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>30336</t>
+          <t>36290</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>39975</t>
+          <t>47053</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6043</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8676</t>
+          <t>8404</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>7831</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9237</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12762</t>
+          <t>13734</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10102</t>
+          <t>10795</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16396</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>123876</t>
+          <t>118236</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>119065</t>
+          <t>113306</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>128568</t>
+          <t>123208</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47979</t>
+          <t>45283</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>44748</t>
+          <t>41975</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50917</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75,01%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>79,61%</t>
+          <t>78,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>171855</t>
+          <t>163519</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>165766</t>
+          <t>157343</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>177501</t>
+          <t>168620</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>77,15%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26432</t>
+          <t>26628</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22994</t>
+          <t>22557</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31090</t>
+          <t>31103</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10495</t>
+          <t>10587</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8236</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>13523</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>36927</t>
+          <t>37215</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>32205</t>
+          <t>32539</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>42411</t>
+          <t>42524</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14133</t>
+          <t>12315</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11212</t>
+          <t>9245</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17972</t>
+          <t>15410</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5486</t>
+          <t>5504</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7814</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>19620</t>
+          <t>17818</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>16137</t>
+          <t>14516</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>23926</t>
+          <t>21929</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>137691</t>
+          <t>137833</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>132029</t>
+          <t>133118</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>142381</t>
+          <t>142448</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>78,19%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>132214</t>
+          <t>137945</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>126754</t>
+          <t>132161</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>137511</t>
+          <t>143259</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>269905</t>
+          <t>275779</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>262387</t>
+          <t>267565</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>276737</t>
+          <t>282776</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>77,8%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27513</t>
+          <t>27072</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23309</t>
+          <t>22879</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31920</t>
+          <t>31272</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32398</t>
+          <t>32512</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28255</t>
+          <t>28008</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37437</t>
+          <t>37549</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>59911</t>
+          <t>59585</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>53822</t>
+          <t>53988</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>66888</t>
+          <t>66567</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,31%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10894</t>
+          <t>10187</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>7644</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14072</t>
+          <t>13139</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17405</t>
+          <t>17937</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>14011</t>
+          <t>14685</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>21133</t>
+          <t>22390</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>28299</t>
+          <t>28124</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>24029</t>
+          <t>23554</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>33337</t>
+          <t>33007</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>58584</t>
+          <t>57212</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>55080</t>
+          <t>53706</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>61938</t>
+          <t>60474</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>69,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>78,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>101442</t>
+          <t>94680</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>96712</t>
+          <t>90657</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105541</t>
+          <t>98489</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>160026</t>
+          <t>151891</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>153989</t>
+          <t>146103</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>165549</t>
+          <t>156734</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>77,78%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14209</t>
+          <t>14188</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11430</t>
+          <t>11394</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17491</t>
+          <t>17358</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23040</t>
+          <t>21876</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19446</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27290</t>
+          <t>25558</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>37249</t>
+          <t>36064</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>31951</t>
+          <t>31718</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>42450</t>
+          <t>41255</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6296</t>
+          <t>6108</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4379</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8598</t>
+          <t>7447</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6549</t>
+          <t>5612</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11433</t>
+          <t>9718</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14893</t>
+          <t>13555</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12023</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18565</t>
+          <t>16742</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>37775</t>
+          <t>40971</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35207</t>
+          <t>37777</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39900</t>
+          <t>43293</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>84,77%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>98266</t>
+          <t>98995</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>94432</t>
+          <t>94771</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>102083</t>
+          <t>102484</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>136041</t>
+          <t>139967</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>131562</t>
+          <t>135279</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>140348</t>
+          <t>144861</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>78,62%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>83,89%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9075</t>
+          <t>10414</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15841</t>
+          <t>16055</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>12456</t>
+          <t>12984</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>19072</t>
+          <t>19564</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>22865</t>
+          <t>23769</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>18884</t>
+          <t>19816</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>26912</t>
+          <t>28015</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6172</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>9209</t>
+          <t>8856</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8439</t>
+          <t>8953</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6369</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11173</t>
+          <t>12076</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>535980</t>
+          <t>553991</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>526713</t>
+          <t>544431</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>545781</t>
+          <t>564106</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>75,4%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>571609</t>
+          <t>601340</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>561374</t>
+          <t>589360</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>582428</t>
+          <t>611629</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>75,66%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1107588</t>
+          <t>1155331</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1093382</t>
+          <t>1140037</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1121328</t>
+          <t>1168856</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>76,98%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>117266</t>
+          <t>124334</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>109084</t>
+          <t>114542</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>125647</t>
+          <t>133213</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>131956</t>
+          <t>141068</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>123847</t>
+          <t>130699</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>141822</t>
+          <t>151757</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>249222</t>
+          <t>265401</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>237603</t>
+          <t>252147</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>262293</t>
+          <t>279450</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45317</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>39536</t>
+          <t>37451</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>51725</t>
+          <t>48836</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>51892</t>
+          <t>54524</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>45736</t>
+          <t>48819</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>58360</t>
+          <t>61860</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>97209</t>
+          <t>97605</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>89208</t>
+          <t>89964</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>105961</t>
+          <t>106378</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>273316</t>
+          <t>273493</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>307307</t>
+          <t>306557</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>237239</t>
+          <t>236244</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>258664</t>
+          <t>257505</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>517622</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>557796</t>
+          <t>559542</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>84,41%</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42513</t>
+          <t>42132</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69738</t>
+          <t>70117</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31341</t>
+          <t>30861</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>51682</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>79341</t>
+          <t>78860</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>112268</t>
+          <t>111205</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>16,78%</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10965</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37038</t>
+          <t>37595</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>4804</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14770</t>
+          <t>14414</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>18466</t>
+          <t>17420</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>45567</t>
+          <t>44434</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>257788</t>
+          <t>257790</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>285007</t>
+          <t>284327</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>185256</t>
+          <t>186074</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>209768</t>
+          <t>211356</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>450726</t>
+          <t>452026</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>486913</t>
+          <t>488691</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,85%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31112</t>
+          <t>31394</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56716</t>
+          <t>56010</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41638</t>
+          <t>40880</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>64308</t>
+          <t>63504</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>78395</t>
+          <t>78756</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>113604</t>
+          <t>111776</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,18%</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16242</t>
+          <t>16289</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>4857</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>16579</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11026</t>
+          <t>10683</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26913</t>
+          <t>27543</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>350482</t>
+          <t>349717</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>461218</t>
+          <t>459020</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>68768</t>
+          <t>69085</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82672</t>
+          <t>82588</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>429209</t>
+          <t>430332</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>549857</t>
+          <t>547579</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10599</t>
+          <t>11773</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95505</t>
+          <t>96623</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10217</t>
+          <t>10815</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23427</t>
+          <t>23117</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17800</t>
+          <t>19168</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>108641</t>
+          <t>109932</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32082</t>
+          <t>33476</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>8951</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5280</t>
+          <t>4927</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>37881</t>
+          <t>35920</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>375513</t>
+          <t>374758</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>418309</t>
+          <t>419120</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>478962</t>
+          <t>478794</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>593619</t>
+          <t>594589</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>75,4%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>868491</t>
+          <t>870684</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1034249</t>
+          <t>1035722</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>88,76%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79485</t>
+          <t>79383</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>119931</t>
+          <t>117906</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33997</t>
+          <t>31724</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122816</t>
+          <t>122596</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>98579</t>
+          <t>96274</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>225439</t>
+          <t>222997</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25738</t>
+          <t>25179</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53441</t>
+          <t>54338</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8315</t>
+          <t>8605</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>37481</t>
+          <t>38113</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>30081</t>
+          <t>35228</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>82574</t>
+          <t>80331</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,88%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>142389</t>
+          <t>139975</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>169265</t>
+          <t>167779</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>66,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>288242</t>
+          <t>291014</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>359773</t>
+          <t>365501</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>68,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>442270</t>
+          <t>444542</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>517735</t>
+          <t>524281</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>82,61%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25863</t>
+          <t>26660</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48322</t>
+          <t>49719</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>42402</t>
+          <t>41751</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>93192</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>79119</t>
+          <t>71187</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>133908</t>
+          <t>133754</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10485</t>
+          <t>10605</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27578</t>
+          <t>27146</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20080</t>
+          <t>20446</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48217</t>
+          <t>48259</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>33522</t>
+          <t>34102</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>67448</t>
+          <t>67381</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>107932</t>
+          <t>107379</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>143576</t>
+          <t>143025</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>345293</t>
+          <t>345024</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>386122</t>
+          <t>384882</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>78,71%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>461997</t>
+          <t>464996</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>518215</t>
+          <t>520139</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>79,45%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12793</t>
+          <t>12606</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44480</t>
+          <t>43848</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>79460</t>
+          <t>81144</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>117414</t>
+          <t>118152</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>102721</t>
+          <t>99015</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>153465</t>
+          <t>148161</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30742</t>
+          <t>30764</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>17085</t>
+          <t>17225</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>37999</t>
+          <t>37959</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>25549</t>
+          <t>24971</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>60643</t>
+          <t>56905</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1590849</t>
+          <t>1589706</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1792951</t>
+          <t>1804204</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1672477</t>
+          <t>1669389</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1870414</t>
+          <t>1873694</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3295788</t>
+          <t>3290528</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3576834</t>
+          <t>3585256</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,88%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>207968</t>
+          <t>195579</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>355313</t>
+          <t>355881</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>250072</t>
+          <t>250187</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>409846</t>
+          <t>413682</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>530241</t>
+          <t>512630</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>749574</t>
+          <t>751004</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>69374</t>
+          <t>71046</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>138512</t>
+          <t>140878</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>76947</t>
+          <t>74915</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>129977</t>
+          <t>129120</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>166631</t>
+          <t>171250</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>255719</t>
+          <t>258866</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,06%</t>
         </is>
       </c>
     </row>
@@ -11043,12 +11043,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>134614</t>
+          <t>134531</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>150413</t>
+          <t>150656</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11058,12 +11058,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11078,12 +11078,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>128815</t>
+          <t>128179</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>146777</t>
+          <t>146076</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11093,12 +11093,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11113,12 +11113,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>267636</t>
+          <t>267079</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>293483</t>
+          <t>291932</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>71,53%</t>
         </is>
       </c>
     </row>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15702</t>
+          <t>15516</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26526</t>
+          <t>26887</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11191,12 +11191,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21110</t>
+          <t>21832</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34860</t>
+          <t>34185</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11226,12 +11226,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>40276</t>
+          <t>40222</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>58188</t>
+          <t>58854</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31795</t>
+          <t>32486</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46466</t>
+          <t>47577</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11304,12 +11304,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33702</t>
+          <t>32867</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49284</t>
+          <t>47708</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11319,12 +11319,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>69026</t>
+          <t>69379</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>91085</t>
+          <t>90860</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11354,12 +11354,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -11499,12 +11499,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65762</t>
+          <t>64856</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82077</t>
+          <t>81433</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87231</t>
+          <t>87071</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>103799</t>
+          <t>103374</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>157703</t>
+          <t>157823</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>180585</t>
+          <t>181218</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11584,12 +11584,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>63,55%</t>
         </is>
       </c>
     </row>
@@ -11612,12 +11612,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10984</t>
+          <t>11433</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20846</t>
+          <t>21515</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11627,12 +11627,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11647,12 +11647,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16107</t>
+          <t>15176</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27230</t>
+          <t>27696</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11662,12 +11662,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11682,12 +11682,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>29876</t>
+          <t>29879</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>44510</t>
+          <t>45063</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25886</t>
+          <t>25748</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40284</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>40049</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54365</t>
+          <t>54886</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>68565</t>
+          <t>69710</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>90182</t>
+          <t>90244</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,64%</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44610</t>
+          <t>43786</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>59531</t>
+          <t>59113</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11970,12 +11970,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24831</t>
+          <t>24463</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37042</t>
+          <t>36494</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -12005,12 +12005,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -12025,12 +12025,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>72799</t>
+          <t>72268</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>92002</t>
+          <t>92026</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>48,16%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>61,33%</t>
         </is>
       </c>
     </row>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5957</t>
+          <t>5870</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13683</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12083,12 +12083,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12103,12 +12103,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10907</t>
+          <t>10722</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10693</t>
+          <t>10327</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>21941</t>
+          <t>21682</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25941</t>
+          <t>26615</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39995</t>
+          <t>40968</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13219</t>
+          <t>13947</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25406</t>
+          <t>25957</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>42903</t>
+          <t>43092</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>61116</t>
+          <t>61801</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71343</t>
+          <t>71500</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>93326</t>
+          <t>94149</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12426,12 +12426,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>74302</t>
+          <t>73358</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>93936</t>
+          <t>93985</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12461,12 +12461,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12481,12 +12481,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>151893</t>
+          <t>151661</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>182050</t>
+          <t>181272</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12496,12 +12496,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>57,59%</t>
         </is>
       </c>
     </row>
@@ -12524,12 +12524,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15455</t>
+          <t>15763</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29936</t>
+          <t>30078</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -12539,12 +12539,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -12559,12 +12559,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16901</t>
+          <t>16660</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30545</t>
+          <t>30594</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -12574,12 +12574,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35496</t>
+          <t>35437</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>55288</t>
+          <t>55069</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -12609,12 +12609,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47833</t>
+          <t>47186</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>68755</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12652,12 +12652,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12672,12 +12672,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>37598</t>
+          <t>37612</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>55325</t>
+          <t>57073</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>87740</t>
+          <t>90594</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>119022</t>
+          <t>118411</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12722,12 +12722,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>37,62%</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28765</t>
+          <t>29682</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39475</t>
+          <t>39487</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12882,12 +12882,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>75,51%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12902,12 +12902,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>36802</t>
+          <t>36561</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>52687</t>
+          <t>51894</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12917,12 +12917,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>70548</t>
+          <t>70638</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>89421</t>
+          <t>88710</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>64,03%</t>
         </is>
       </c>
     </row>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2038</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7214</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -13015,12 +13015,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11902</t>
+          <t>12574</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -13030,12 +13030,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>7172</t>
+          <t>7493</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>16440</t>
+          <t>16479</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13065,12 +13065,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9282</t>
+          <t>9014</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18805</t>
+          <t>18278</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13108,12 +13108,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26787</t>
+          <t>27180</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>42265</t>
+          <t>42472</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>38640</t>
+          <t>38493</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>56827</t>
+          <t>56499</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>40,78%</t>
         </is>
       </c>
     </row>
@@ -13323,12 +13323,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18079</t>
+          <t>18001</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>27558</t>
+          <t>27839</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -13338,12 +13338,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>75,4%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -13358,12 +13358,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>32118</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>43362</t>
+          <t>43964</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -13373,12 +13373,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -13393,12 +13393,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>54556</t>
+          <t>54054</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>69546</t>
+          <t>69143</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -13408,12 +13408,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>70,45%</t>
         </is>
       </c>
     </row>
@@ -13436,12 +13436,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>5004</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11153</t>
+          <t>11134</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13506,12 +13506,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13529</t>
+          <t>13782</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -13549,12 +13549,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6803</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15838</t>
+          <t>15773</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13584,12 +13584,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>12374</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22950</t>
+          <t>22370</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13619,12 +13619,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>20739</t>
+          <t>21492</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>35173</t>
+          <t>34831</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>389665</t>
+          <t>390341</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>426762</t>
+          <t>428061</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>63,8%</t>
+          <t>63,99%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13814,12 +13814,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>409775</t>
+          <t>411853</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>449210</t>
+          <t>450482</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13829,12 +13829,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13849,12 +13849,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>809459</t>
+          <t>812105</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>866461</t>
+          <t>865639</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>62,06%</t>
         </is>
       </c>
     </row>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>62808</t>
+          <t>63255</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>85223</t>
+          <t>85347</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13927,12 +13927,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>78434</t>
+          <t>79930</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>105074</t>
+          <t>105438</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13962,12 +13962,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>148194</t>
+          <t>148632</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>182303</t>
+          <t>182880</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13977,12 +13977,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,11%</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>168015</t>
+          <t>169367</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>204090</t>
+          <t>205544</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>186382</t>
+          <t>185956</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>223768</t>
+          <t>222995</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14075,12 +14075,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>365410</t>
+          <t>366347</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>416547</t>
+          <t>417842</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14090,12 +14090,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>29,96%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SENS_INSEGURIDAD-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>130318</t>
+          <t>313076</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>125021</t>
+          <t>294041</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>134877</t>
+          <t>328903</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>79,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>375</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>130693</t>
+          <t>270365</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>124668</t>
+          <t>257626</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>135760</t>
+          <t>281050</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>696</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>261011</t>
+          <t>583441</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>253330</t>
+          <t>562065</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>268112</t>
+          <t>603236</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>83,78%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31174</t>
+          <t>61949</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26844</t>
+          <t>49061</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36372</t>
+          <t>78567</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36028</t>
+          <t>45908</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31498</t>
+          <t>35949</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41992</t>
+          <t>57894</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>67202</t>
+          <t>107857</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>60452</t>
+          <t>90644</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>74675</t>
+          <t>127298</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>19494</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4080</t>
+          <t>11128</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8870</t>
+          <t>35757</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9412</t>
+          <t>9247</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>5029</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12267</t>
+          <t>15317</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>15420</t>
+          <t>28741</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>12067</t>
+          <t>17852</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>19176</t>
+          <t>43975</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>394519</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>394519</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>394519</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>452</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>325520</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>325520</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>325520</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>850</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>720039</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>720039</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>720039</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69420</t>
+          <t>289107</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65605</t>
+          <t>274133</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73449</t>
+          <t>302087</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>79,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,08%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>304</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93745</t>
+          <t>218748</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>89208</t>
+          <t>206198</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>98180</t>
+          <t>231691</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>585</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>163165</t>
+          <t>507855</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>157171</t>
+          <t>487769</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>169090</t>
+          <t>525793</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>80,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>83,54%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17558</t>
+          <t>44505</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14116</t>
+          <t>33044</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20862</t>
+          <t>58688</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24009</t>
+          <t>57688</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20196</t>
+          <t>46391</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28208</t>
+          <t>70794</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>41567</t>
+          <t>102193</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>36290</t>
+          <t>85717</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>120644</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5903</t>
+          <t>9554</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8404</t>
+          <t>17850</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7831</t>
+          <t>9768</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5567</t>
+          <t>5265</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10467</t>
+          <t>17632</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13734</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10795</t>
+          <t>12124</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17239</t>
+          <t>30457</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343166</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343166</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343166</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286204</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286204</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286204</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>725</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>629370</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>629370</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>629370</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>118236</t>
+          <t>199951</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>113306</t>
+          <t>184392</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>123208</t>
+          <t>214079</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,22%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>82,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45283</t>
+          <t>88356</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41975</t>
+          <t>79722</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47967</t>
+          <t>94897</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>78,15%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>333</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>163519</t>
+          <t>288308</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>157343</t>
+          <t>271014</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>168620</t>
+          <t>303869</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>72,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>81,82%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26628</t>
+          <t>45153</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22557</t>
+          <t>33498</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31103</t>
+          <t>58512</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10587</t>
+          <t>17268</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8236</t>
+          <t>11656</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13523</t>
+          <t>25010</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>37215</t>
+          <t>62421</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>32539</t>
+          <t>48956</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>42524</t>
+          <t>79498</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>21,41%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12315</t>
+          <t>15452</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9245</t>
+          <t>8844</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15410</t>
+          <t>24881</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>10795</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>17818</t>
+          <t>20660</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>14516</t>
+          <t>12868</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21929</t>
+          <t>31288</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110832</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110832</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110832</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>371389</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>371389</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>371389</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>137833</t>
+          <t>448850</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>133118</t>
+          <t>424747</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>142448</t>
+          <t>472814</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>78,72%</t>
+          <t>74,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>137945</t>
+          <t>369762</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>132161</t>
+          <t>351637</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>143259</t>
+          <t>387567</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>275779</t>
+          <t>818613</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>267565</t>
+          <t>789937</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>282776</t>
+          <t>849725</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>77,76%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27072</t>
+          <t>111524</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22879</t>
+          <t>91258</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31272</t>
+          <t>133926</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32512</t>
+          <t>90238</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28008</t>
+          <t>74350</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37549</t>
+          <t>107403</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>217</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>59585</t>
+          <t>201761</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>53988</t>
+          <t>176287</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>66567</t>
+          <t>229125</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>20,97%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10187</t>
+          <t>43806</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7644</t>
+          <t>30394</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13139</t>
+          <t>59068</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17937</t>
+          <t>28632</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>14685</t>
+          <t>20033</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>22390</t>
+          <t>38764</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>28124</t>
+          <t>72438</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>23554</t>
+          <t>56490</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>33007</t>
+          <t>88618</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>604180</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>604180</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>604180</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>668</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488632</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488632</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488632</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1092812</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1092812</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1092812</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2555,107 +2555,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>57212</t>
+          <t>184582</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53706</t>
+          <t>167227</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>60474</t>
+          <t>198282</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>94680</t>
+          <t>277498</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>90657</t>
+          <t>261312</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>98489</t>
+          <t>293307</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>68,33%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>577</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151891</t>
+          <t>462080</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>146103</t>
+          <t>438493</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156734</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>70,2%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>66,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>73,08%</t>
         </is>
       </c>
     </row>
@@ -2668,107 +2668,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14188</t>
+          <t>47793</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11394</t>
+          <t>36582</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17358</t>
+          <t>63115</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21876</t>
+          <t>84231</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>18125</t>
+          <t>70678</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>25558</t>
+          <t>98646</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>164</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>36064</t>
+          <t>132024</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>31718</t>
+          <t>115633</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>41255</t>
+          <t>153150</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>23,27%</t>
         </is>
       </c>
     </row>
@@ -2781,107 +2781,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6108</t>
+          <t>19695</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8401</t>
+          <t>30986</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7447</t>
+          <t>44394</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>34757</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9718</t>
+          <t>58873</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>13555</t>
+          <t>64089</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10752</t>
+          <t>50970</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>82197</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>252070</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>252070</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>252070</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406123</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406123</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>406123</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,22 +2964,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>813</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>658193</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>658193</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>658193</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,107 +3011,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40971</t>
+          <t>126758</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37777</t>
+          <t>108139</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43293</t>
+          <t>143377</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>64,22%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>536</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>98995</t>
+          <t>410922</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>94771</t>
+          <t>389165</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>102484</t>
+          <t>430226</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>78,04%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>595</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>139967</t>
+          <t>537680</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>135279</t>
+          <t>509956</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>144861</t>
+          <t>566310</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>79,29%</t>
         </is>
       </c>
     </row>
@@ -3124,107 +3124,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7714</t>
+          <t>27876</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>13605</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10414</t>
+          <t>44841</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16055</t>
+          <t>104434</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>12984</t>
+          <t>87929</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>19564</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>23769</t>
+          <t>132310</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>19816</t>
+          <t>107827</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>28015</t>
+          <t>157250</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>22,02%</t>
         </is>
       </c>
     </row>
@@ -3237,107 +3237,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>13765</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>30353</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>6392</t>
+          <t>30474</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4292</t>
+          <t>20396</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>8856</t>
+          <t>43373</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8953</t>
+          <t>44239</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>29771</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>12076</t>
+          <t>63005</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>168399</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>168399</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>168399</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3385,22 +3385,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>545830</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>545830</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>545830</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3420,22 +3420,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>773</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>714228</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>714228</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>714228</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3467,107 +3467,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>553991</t>
+          <t>1562326</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>544431</t>
+          <t>1516031</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>564106</t>
+          <t>1602608</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>2267</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>601340</t>
+          <t>1635651</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>589360</t>
+          <t>1598050</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>611629</t>
+          <t>1669697</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>76,75%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6427</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1155331</t>
+          <t>3197977</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1140037</t>
+          <t>3134664</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1168856</t>
+          <t>3251564</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>76,98%</t>
+          <t>77,68%</t>
         </is>
       </c>
     </row>
@@ -3580,107 +3580,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>124334</t>
+          <t>338799</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>114542</t>
+          <t>303345</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>133213</t>
+          <t>377724</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>141068</t>
+          <t>399766</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>130699</t>
+          <t>366195</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>151757</t>
+          <t>433971</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>738565</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>693049</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>797031</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
           <t>19,04%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>1457</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>265401</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>252147</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>279450</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>17,48%</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>16,61%</t>
-        </is>
-      </c>
-      <c r="W29" s="2" t="inlineStr">
-        <is>
-          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -3693,107 +3693,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>121765</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>37451</t>
+          <t>98466</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>48836</t>
+          <t>150725</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>54524</t>
+          <t>127724</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>48819</t>
+          <t>107475</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>61860</t>
+          <t>150515</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>256</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>97605</t>
+          <t>249488</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>89964</t>
+          <t>216579</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>106378</t>
+          <t>290468</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2022890</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2022890</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2022890</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3841,22 +3841,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2163141</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2163141</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2163141</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3876,22 +3876,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4809</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4186031</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4186031</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4186031</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Andalucia (tasa de respuesta: 99,45%)</t>
+          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4165,107 +4165,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>291973</t>
+          <t>143137</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>273493</t>
+          <t>134531</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>306557</t>
+          <t>150656</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>407</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>248033</t>
+          <t>137737</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>236244</t>
+          <t>128179</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>257505</t>
+          <t>146076</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>67,04%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>79,57%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>819</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>280874</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>267079</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>559542</t>
+          <t>291932</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>71,53%</t>
         </is>
       </c>
     </row>
@@ -4278,107 +4278,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54550</t>
+          <t>20558</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42132</t>
+          <t>15516</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70117</t>
+          <t>26887</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40081</t>
+          <t>27659</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30861</t>
+          <t>21832</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51682</t>
+          <t>34185</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>94631</t>
+          <t>48218</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>78860</t>
+          <t>40222</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>111205</t>
+          <t>58854</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>14,42%</t>
         </is>
       </c>
     </row>
@@ -4391,107 +4391,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19457</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10943</t>
+          <t>32486</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>47577</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8792</t>
+          <t>40053</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4804</t>
+          <t>32867</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14414</t>
+          <t>47708</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>237</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>28248</t>
+          <t>79058</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>17420</t>
+          <t>69379</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>44434</t>
+          <t>90860</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -4504,22 +4504,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>593</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>365980</t>
+          <t>202700</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>365980</t>
+          <t>202700</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>365980</t>
+          <t>202700</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>602</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>296906</t>
+          <t>205449</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>296906</t>
+          <t>205449</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>296906</t>
+          <t>205449</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4574,22 +4574,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>662886</t>
+          <t>408150</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>662886</t>
+          <t>408150</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>662886</t>
+          <t>408150</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4621,107 +4621,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>272054</t>
+          <t>73456</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>257790</t>
+          <t>64856</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>284327</t>
+          <t>81433</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>199127</t>
+          <t>95315</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>186074</t>
+          <t>87071</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211356</t>
+          <t>103374</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>71,59%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>415</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>471181</t>
+          <t>168771</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>452026</t>
+          <t>157823</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>488691</t>
+          <t>181218</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>63,55%</t>
         </is>
       </c>
     </row>
@@ -4734,107 +4734,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42503</t>
+          <t>15772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31394</t>
+          <t>11433</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56010</t>
+          <t>21515</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51683</t>
+          <t>21092</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40880</t>
+          <t>15176</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63504</t>
+          <t>27696</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>94186</t>
+          <t>36864</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>78756</t>
+          <t>29879</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>111776</t>
+          <t>45063</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -4847,107 +4847,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8334</t>
+          <t>32837</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3921</t>
+          <t>25748</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16289</t>
+          <t>40151</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>46705</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4857</t>
+          <t>40049</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16579</t>
+          <t>54886</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17442</t>
+          <t>79541</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10683</t>
+          <t>69710</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>27543</t>
+          <t>90244</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>31,64%</t>
         </is>
       </c>
     </row>
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>322891</t>
+          <t>122064</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>322891</t>
+          <t>122064</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>322891</t>
+          <t>122064</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>416</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>259919</t>
+          <t>163112</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>259919</t>
+          <t>163112</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>259919</t>
+          <t>163112</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5030,22 +5030,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>706</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>582810</t>
+          <t>285176</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>582810</t>
+          <t>285176</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>582810</t>
+          <t>285176</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5077,107 +5077,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>418890</t>
+          <t>51868</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>349717</t>
+          <t>43786</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459020</t>
+          <t>59113</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>63,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76766</t>
+          <t>30960</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>69085</t>
+          <t>24463</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82588</t>
+          <t>36494</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>55,05%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>189</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>495655</t>
+          <t>82827</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>430332</t>
+          <t>72268</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>547579</t>
+          <t>92026</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>55,2%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>75,18%</t>
+          <t>48,16%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>61,33%</t>
         </is>
       </c>
     </row>
@@ -5190,107 +5190,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42644</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11773</t>
+          <t>5870</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>96623</t>
+          <t>14040</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16011</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10815</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23117</t>
+          <t>10722</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>58655</t>
+          <t>15148</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19168</t>
+          <t>10327</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>109932</t>
+          <t>21682</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -5303,107 +5303,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>32792</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3359</t>
+          <t>26615</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33476</t>
+          <t>40968</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>19287</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>13947</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8951</t>
+          <t>25957</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>112</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>18088</t>
+          <t>52079</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4927</t>
+          <t>43092</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35920</t>
+          <t>61801</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -5416,22 +5416,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>93821</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>93821</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>93821</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5451,22 +5451,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96975</t>
+          <t>56234</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>96975</t>
+          <t>56234</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>96975</t>
+          <t>56234</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5486,22 +5486,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>337</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572398</t>
+          <t>150055</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572398</t>
+          <t>150055</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572398</t>
+          <t>150055</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5533,107 +5533,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>396989</t>
+          <t>82608</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>374758</t>
+          <t>71500</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>419120</t>
+          <t>94149</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,48%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>78,82%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>173</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>534367</t>
+          <t>83649</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>478794</t>
+          <t>73358</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>594589</t>
+          <t>93985</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>54,59%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>349</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>931356</t>
+          <t>166257</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>870684</t>
+          <t>151661</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1035722</t>
+          <t>181272</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>57,59%</t>
         </is>
       </c>
     </row>
@@ -5646,107 +5646,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>97772</t>
+          <t>21694</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79383</t>
+          <t>15763</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>117906</t>
+          <t>30078</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77769</t>
+          <t>22952</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31724</t>
+          <t>16660</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122596</t>
+          <t>30594</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>175542</t>
+          <t>44646</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>96274</t>
+          <t>35437</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>222997</t>
+          <t>55069</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -5759,107 +5759,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36956</t>
+          <t>57241</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25179</t>
+          <t>47186</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>54338</t>
+          <t>68755</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23057</t>
+          <t>46624</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8605</t>
+          <t>37612</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>38113</t>
+          <t>57073</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>213</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>60013</t>
+          <t>103866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>35228</t>
+          <t>90594</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>80331</t>
+          <t>118411</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>37,62%</t>
         </is>
       </c>
     </row>
@@ -5872,22 +5872,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>531717</t>
+          <t>161543</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>531717</t>
+          <t>161543</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>531717</t>
+          <t>161543</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5907,22 +5907,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>323</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>635194</t>
+          <t>153226</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>635194</t>
+          <t>153226</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>635194</t>
+          <t>153226</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5942,22 +5942,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>654</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1166911</t>
+          <t>314769</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1166911</t>
+          <t>314769</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1166911</t>
+          <t>314769</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5989,107 +5989,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>155982</t>
+          <t>34773</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>139975</t>
+          <t>29682</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>167779</t>
+          <t>39487</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>316987</t>
+          <t>45062</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>291014</t>
+          <t>36561</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>365501</t>
+          <t>51894</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>52,23%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>472968</t>
+          <t>79836</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>444542</t>
+          <t>70638</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>524281</t>
+          <t>88710</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>64,03%</t>
         </is>
       </c>
     </row>
@@ -6102,107 +6102,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36447</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26660</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>49719</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>73594</t>
+          <t>7253</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>41751</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>93192</t>
+          <t>12574</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>110041</t>
+          <t>11253</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>71187</t>
+          <t>7493</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>133754</t>
+          <t>16479</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -6215,107 +6215,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17352</t>
+          <t>13503</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10605</t>
+          <t>9014</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27146</t>
+          <t>18278</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>34259</t>
+          <t>33960</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20446</t>
+          <t>27180</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48259</t>
+          <t>42472</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>51612</t>
+          <t>47463</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>34102</t>
+          <t>38493</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>67381</t>
+          <t>56499</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>40,78%</t>
         </is>
       </c>
     </row>
@@ -6328,22 +6328,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>209781</t>
+          <t>52277</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>209781</t>
+          <t>52277</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>209781</t>
+          <t>52277</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6363,22 +6363,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>424840</t>
+          <t>86275</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>424840</t>
+          <t>86275</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>424840</t>
+          <t>86275</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6398,22 +6398,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>274</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>634621</t>
+          <t>138552</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>634621</t>
+          <t>138552</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>634621</t>
+          <t>138552</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6445,107 +6445,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>127065</t>
+          <t>23321</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>107379</t>
+          <t>18001</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>143025</t>
+          <t>27839</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>63,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>365534</t>
+          <t>38448</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>345024</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>384882</t>
+          <t>43964</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>62,41%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>492599</t>
+          <t>61769</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>464996</t>
+          <t>54054</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>520139</t>
+          <t>69143</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>75,24%</t>
+          <t>62,93%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>70,45%</t>
         </is>
       </c>
     </row>
@@ -6558,107 +6558,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>26020</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12606</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>43848</t>
+          <t>5004</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>97792</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>81144</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>118152</t>
+          <t>11134</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>123812</t>
+          <t>8539</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>99015</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>148161</t>
+          <t>13782</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -6671,107 +6671,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>12601</t>
+          <t>10908</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30764</t>
+          <t>15773</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25692</t>
+          <t>16935</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>17225</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>37959</t>
+          <t>22370</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>38292</t>
+          <t>27843</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>24971</t>
+          <t>21492</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>56905</t>
+          <t>34831</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -6784,22 +6784,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>165686</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>165686</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>165686</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6819,22 +6819,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>151</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>489017</t>
+          <t>61604</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>489017</t>
+          <t>61604</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>489017</t>
+          <t>61604</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>241</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>654703</t>
+          <t>98151</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>654703</t>
+          <t>98151</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>654703</t>
+          <t>98151</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6901,107 +6901,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>989</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1662953</t>
+          <t>409163</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1589706</t>
+          <t>390341</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1804204</t>
+          <t>428061</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>63,99%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2267</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1740814</t>
+          <t>431171</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1669389</t>
+          <t>411853</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1873694</t>
+          <t>450482</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3403766</t>
+          <t>840334</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3290528</t>
+          <t>812105</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3585256</t>
+          <t>865639</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>76,98%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>62,06%</t>
         </is>
       </c>
     </row>
@@ -7014,107 +7014,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>299938</t>
+          <t>73503</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>195579</t>
+          <t>63255</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>355881</t>
+          <t>85347</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>219</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>356930</t>
+          <t>91165</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>250187</t>
+          <t>79930</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>413682</t>
+          <t>105438</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>404</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>656868</t>
+          <t>164668</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>512630</t>
+          <t>148632</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>751004</t>
+          <t>182880</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>13,11%</t>
         </is>
       </c>
     </row>
@@ -7127,107 +7127,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>108589</t>
+          <t>186286</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>71046</t>
+          <t>169367</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>140878</t>
+          <t>205544</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>504</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>105106</t>
+          <t>203565</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>74915</t>
+          <t>185956</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>129120</t>
+          <t>222995</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>937</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>213696</t>
+          <t>389851</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>171250</t>
+          <t>366347</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>258866</t>
+          <t>417842</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>29,96%</t>
         </is>
       </c>
     </row>
@@ -7240,22 +7240,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2071480</t>
+          <t>668953</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2071480</t>
+          <t>668953</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2071480</t>
+          <t>668953</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7275,22 +7275,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2202850</t>
+          <t>725901</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2202850</t>
+          <t>725901</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2202850</t>
+          <t>725901</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7310,22 +7310,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4809</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4274330</t>
+          <t>1394853</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4274330</t>
+          <t>1394853</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4274330</t>
+          <t>1394853</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de inseguridad en Barcelona (tasa de respuesta: 97,55%)</t>
+          <t>Percepción de inseguridad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11033,107 +11033,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>670</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>143137</t>
+          <t>130318</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>134531</t>
+          <t>125021</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>150656</t>
+          <t>134877</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,37%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>655</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>137737</t>
+          <t>130693</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>128179</t>
+          <t>124668</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>146076</t>
+          <t>135760</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>280874</t>
+          <t>261011</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>267079</t>
+          <t>253330</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>291932</t>
+          <t>268112</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>78,02%</t>
         </is>
       </c>
     </row>
@@ -11146,107 +11146,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20558</t>
+          <t>31174</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15516</t>
+          <t>26844</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26887</t>
+          <t>36372</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27659</t>
+          <t>36028</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21832</t>
+          <t>31498</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34185</t>
+          <t>41992</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>337</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>48218</t>
+          <t>67202</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>40222</t>
+          <t>60452</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>58854</t>
+          <t>74675</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>21,73%</t>
         </is>
       </c>
     </row>
@@ -11259,107 +11259,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39005</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32486</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47577</t>
+          <t>8870</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40053</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32867</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47708</t>
+          <t>12267</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>79058</t>
+          <t>15420</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>69379</t>
+          <t>12067</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>90860</t>
+          <t>19176</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -11372,22 +11372,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>202700</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>202700</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>202700</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11407,22 +11407,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>205449</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>205449</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>205449</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11442,22 +11442,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>408150</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>408150</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>408150</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11489,107 +11489,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73456</t>
+          <t>69420</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64856</t>
+          <t>65605</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81433</t>
+          <t>73449</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,13%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>509</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95315</t>
+          <t>93745</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87071</t>
+          <t>89208</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>103374</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>883</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>168771</t>
+          <t>163165</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>157823</t>
+          <t>157171</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>181218</t>
+          <t>169090</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,34%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
+          <t>77,4%</t>
         </is>
       </c>
     </row>
@@ -11602,107 +11602,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15772</t>
+          <t>17558</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11433</t>
+          <t>14116</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21515</t>
+          <t>20862</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21092</t>
+          <t>24009</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15176</t>
+          <t>20196</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27696</t>
+          <t>28208</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>36864</t>
+          <t>41567</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>29879</t>
+          <t>36290</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>45063</t>
+          <t>47053</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -11715,107 +11715,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32837</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25748</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40151</t>
+          <t>8404</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46705</t>
+          <t>7831</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40049</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>54886</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>79541</t>
+          <t>13734</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>69710</t>
+          <t>10795</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>90244</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -11828,22 +11828,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>122064</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122064</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>122064</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11863,22 +11863,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>163112</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>163112</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>163112</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11898,22 +11898,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>285176</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>285176</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>285176</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11945,107 +11945,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>701</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51868</t>
+          <t>118236</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43786</t>
+          <t>113306</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>59113</t>
+          <t>123208</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>72,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>277</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30960</t>
+          <t>45283</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24463</t>
+          <t>41975</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>36494</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>78,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>978</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>82827</t>
+          <t>163519</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>72268</t>
+          <t>157343</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>92026</t>
+          <t>168620</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>55,2%</t>
+          <t>74,82%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>61,33%</t>
+          <t>77,15%</t>
         </is>
       </c>
     </row>
@@ -12058,107 +12058,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9161</t>
+          <t>26628</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>22557</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14040</t>
+          <t>31103</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>10587</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>8236</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10722</t>
+          <t>13523</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>15148</t>
+          <t>37215</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10327</t>
+          <t>32539</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>21682</t>
+          <t>42524</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>19,46%</t>
         </is>
       </c>
     </row>
@@ -12171,107 +12171,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32792</t>
+          <t>12315</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26615</t>
+          <t>9245</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40968</t>
+          <t>15410</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>5504</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13947</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>25957</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>52079</t>
+          <t>17818</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>43092</t>
+          <t>14516</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>61801</t>
+          <t>21929</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93821</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93821</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93821</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12319,22 +12319,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56234</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56234</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>56234</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>150055</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>150055</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>150055</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12401,107 +12401,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>789</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>82608</t>
+          <t>137833</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71500</t>
+          <t>133118</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>94149</t>
+          <t>142448</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>769</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>83649</t>
+          <t>137945</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>73358</t>
+          <t>132161</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>93985</t>
+          <t>143259</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>166257</t>
+          <t>275779</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>151661</t>
+          <t>267565</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>181272</t>
+          <t>282776</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>77,8%</t>
         </is>
       </c>
     </row>
@@ -12514,107 +12514,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21694</t>
+          <t>27072</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15763</t>
+          <t>22879</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30078</t>
+          <t>31272</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22952</t>
+          <t>32512</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16660</t>
+          <t>28008</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30594</t>
+          <t>37549</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>347</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>44646</t>
+          <t>59585</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35437</t>
+          <t>53988</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>55069</t>
+          <t>66567</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>18,31%</t>
         </is>
       </c>
     </row>
@@ -12627,107 +12627,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>57241</t>
+          <t>10187</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47186</t>
+          <t>7644</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>68755</t>
+          <t>13139</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46624</t>
+          <t>17937</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>37612</t>
+          <t>14685</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>57073</t>
+          <t>22390</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>103866</t>
+          <t>28124</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>90594</t>
+          <t>23554</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>118411</t>
+          <t>33007</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -12740,22 +12740,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>161543</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>161543</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>161543</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12775,22 +12775,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>153226</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>153226</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>153226</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12810,22 +12810,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>314769</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>314769</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>314769</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12857,107 +12857,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>34773</t>
+          <t>57212</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29682</t>
+          <t>53706</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39487</t>
+          <t>60474</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>69,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>75,53%</t>
+          <t>78,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>563</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>45062</t>
+          <t>94680</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>36561</t>
+          <t>90657</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>51894</t>
+          <t>98489</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>60,15%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>895</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>79836</t>
+          <t>151891</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>70638</t>
+          <t>146103</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>88710</t>
+          <t>156734</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>77,78%</t>
         </is>
       </c>
     </row>
@@ -12970,107 +12970,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>14188</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>11394</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7517</t>
+          <t>17358</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7253</t>
+          <t>21876</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3959</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12574</t>
+          <t>25558</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>11253</t>
+          <t>36064</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>7493</t>
+          <t>31718</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>16479</t>
+          <t>41255</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -13083,107 +13083,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13503</t>
+          <t>6108</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9014</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18278</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33960</t>
+          <t>7447</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>27180</t>
+          <t>5612</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>42472</t>
+          <t>9718</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>47463</t>
+          <t>13555</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>38493</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>56499</t>
+          <t>16742</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -13196,22 +13196,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>52277</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>52277</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>52277</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13231,22 +13231,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>86275</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>86275</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>86275</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13266,22 +13266,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>138552</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>138552</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>138552</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13313,107 +13313,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>23321</t>
+          <t>40971</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18001</t>
+          <t>37777</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>27839</t>
+          <t>43293</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>571</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>38448</t>
+          <t>98995</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>32752</t>
+          <t>94771</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>43964</t>
+          <t>102484</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>61769</t>
+          <t>139967</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>54054</t>
+          <t>135279</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>69143</t>
+          <t>144861</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>70,45%</t>
+          <t>83,89%</t>
         </is>
       </c>
     </row>
@@ -13426,107 +13426,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>10414</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>16055</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>12984</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11134</t>
+          <t>19564</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>134</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>8539</t>
+          <t>23769</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>19816</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13782</t>
+          <t>28015</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -13539,107 +13539,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10908</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6542</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15773</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16935</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>12109</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22370</t>
+          <t>8856</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>27843</t>
+          <t>8953</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>21492</t>
+          <t>6369</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>34831</t>
+          <t>12076</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -13652,22 +13652,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13687,22 +13687,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>61604</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>61604</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>61604</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13722,22 +13722,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>98151</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>98151</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>98151</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13769,107 +13769,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>409163</t>
+          <t>553991</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>390341</t>
+          <t>544431</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>428061</t>
+          <t>564106</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>63,99%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>431171</t>
+          <t>601340</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>411853</t>
+          <t>589360</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>450482</t>
+          <t>611629</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>56,74%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>6427</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>840334</t>
+          <t>1155331</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>812105</t>
+          <t>1140037</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>865639</t>
+          <t>1168856</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>76,98%</t>
         </is>
       </c>
     </row>
@@ -13882,107 +13882,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>685</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>73503</t>
+          <t>124334</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>63255</t>
+          <t>114542</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>85347</t>
+          <t>133213</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>772</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>91165</t>
+          <t>141068</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>79930</t>
+          <t>130699</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>105438</t>
+          <t>151757</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>1457</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>164668</t>
+          <t>265401</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>148632</t>
+          <t>252147</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>182880</t>
+          <t>279450</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -13995,107 +13995,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>186286</t>
+          <t>43081</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>169367</t>
+          <t>37451</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>205544</t>
+          <t>48836</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>203565</t>
+          <t>54524</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>185956</t>
+          <t>48819</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>222995</t>
+          <t>61860</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>389851</t>
+          <t>97605</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>366347</t>
+          <t>89964</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>417842</t>
+          <t>106378</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -14108,22 +14108,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>668953</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>668953</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>668953</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -14143,22 +14143,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>725901</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>725901</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>725901</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -14178,22 +14178,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1394853</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1394853</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1394853</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
